--- a/Output_testing/R1_201907/Country/HKD/MN/CONGO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CONGO_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>1.276018</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.445036</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-17.79048504550665</v>
@@ -658,8 +660,10 @@
       <c r="G10" s="8" t="n">
         <v>2.931739</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>1306.932048697124</v>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I10" s="9" t="n">
         <v>155.2572117390202</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/CONGO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CONGO_201907_HKD_MN.xlsx
@@ -814,136 +814,469 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>94.896136</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>54.07074720017791</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>92.31639300000001</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>60.33339647499599</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>160.181399</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>76.20319611719324</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>46.22574</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>54.80093300340203</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-57.33821683338258</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>43.770444</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>24.93990495422853</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>33.979363</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>22.20721925137185</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>26.892504</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.79358757750895</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>18.876899</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>22.37869371936472</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>23.15344040439587</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>3.125627</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>1.78094698565019</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>5.029068</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>3.28674836270645</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>9.848549999999999</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>4.685256788898339</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>11.769925</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>13.95332711558683</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>348.1083766723268</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2.025815</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.154286521627482</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2.487887</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.625959029356664</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2.573114</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.224109116276951</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1.667549</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.97689081946314</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-20.7863369828343</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1.516242</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.797515329315319</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2.626009</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.496270288438214</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.698526</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.763622188489156</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>2.206861</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.04987134983373</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.892584</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.05816447684577</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-10.25491238989038</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.309927</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.885959045456217</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.655907</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.082218339669328</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.552696</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.7386650293794818</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.727657</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.8626423829333291</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>17.52686383230962</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.695369</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.8243647366519748</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.116347</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.205870633392859</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.952078</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.275780953921339</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.258594</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.5987517028361247</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5266685464063825</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-37.53755780421996</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>8.15625</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>4.647339190411833</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.643771</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.4207366613869397</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.1493656182145799</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4507984768228188</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>15.477097</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>8.818675180616754</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>12.247443</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>8.004318738102283</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>5.287164</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>2.515265803089683</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1.155625</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>1.37000139320769</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-63.72849564710561</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1308,593 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>2.100827</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>70.66943357535375</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.952078</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>79.87601707936339</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.258594</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>98.63450202113137</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>99.82473328000432</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-37.53755780421996</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0.3886025733616762</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>1.365497978868637</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>0.1752667199956857</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-75.23809523809524</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>18.46261178410604</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.09125429388044</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.1959463823420184</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.1180906630221962</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>0.8661</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>29.13462004230424</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.06342360626625231</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1926,475 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>94.896136</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>55.00240014977027</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>92.31639300000001</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>61.31268358534692</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>160.181399</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>76.66860586097128</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>46.22574</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>55.09159252233674</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-57.33821683338258</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>43.770444</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>25.36962596265365</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>33.979363</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>22.56767042502023</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>26.892504</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.8717241993285</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>18.876899</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>22.49738842024608</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>23.15344040439587</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>3.125627</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>1.811633162523351</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5.029068</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>3.340096433503349</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>9.848549999999999</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>4.713871916252078</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>11.769925</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>14.02733438379708</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>348.1083766723268</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2.025815</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.174175176736457</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>2.487887</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.652350394876216</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2.573114</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.231585342199111</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1.667549</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.987376081357056</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-20.7863369828343</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.516242</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.807049198763566</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2.626009</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.522051412239779</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.671857</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.77453556733195</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>2.206861</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.056283421516058</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.892584</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.063776891834666</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-10.25491238989038</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3.309927</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.918454607261656</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.655907</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.099784108091843</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>1.552696</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7431764136727678</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.727657</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.8672177652542931</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>17.52686383230962</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>SOAP, CLEANSING AND POLISHING PREPARATIONS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.695369</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.8287370975708506</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>8.15625</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>4.72741404583179</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.643771</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.4275657479860849</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.1502778662257471</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.4531894738593416</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1292219279167788</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.558706</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2674168809460817</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.2902079715143902</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-0.9606819947369893</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>14.599767</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>8.462117220741327</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>11.58774</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.696091809926628</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>4.711034</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>2.254871109869848</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>0.91134</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>1.086130193465943</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-68.97063149637184</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2426,553 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>5.498358</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>20.25930442302417</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>10.694225</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>39.62476720383268</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>16.648017</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>66.74439472742272</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>14.591386</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>96.31183800976729</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>62.50185428298163</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.5973858061088253</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.1504331121213184</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>1.448738368654478</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>2.893503086570508</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>648.6082174937668</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.6091286579195255</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>1.979315</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.333855057103632</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.06596254235265893</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.6008060119280683</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.07752399514512993</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.2232136688711074</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.1477542170458575</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.2394103919729764</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.06975509414165458</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-73.99286329518888</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>21.212</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>78.15794559415532</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>12.8155</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>47.48461941849154</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>7.84252</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>31.44183781994619</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.05965614965097946</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.21811</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>4.513400941036926</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.4335141408422232</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.153021849921048</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.3116559095258211</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
